--- a/sinkhole_data/구별/강서구.xlsx
+++ b/sinkhole_data/구별/강서구.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dogs0\OneDrive\바탕 화면\2025 전국대학생 CM•시공 경진대회\싱크홀 데이터\구별\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD770F2F-3EA4-46B6-94F1-93E35E59B248}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1F7CD4E-B58B-4E9F-B746-3F5CD521863F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1820" yWindow="1820" windowWidth="11630" windowHeight="7270" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9510" yWindow="0" windowWidth="9780" windowHeight="10170" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1735,22 +1735,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="52.1640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="3.83203125" customWidth="1"/>
-    <col min="5" max="5" width="4.75" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="3.83203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="35.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="62.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.4140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.08203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.58203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="47.83203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="11.9140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="26" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1779,7 +1778,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:10" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A2" s="5">
         <v>43577</v>
       </c>
@@ -1808,7 +1807,7 @@
         <v>35.092114147970896</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="32.5" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:10" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A3" s="5">
         <v>43890</v>
       </c>
@@ -1838,7 +1837,7 @@
       </c>
       <c r="J3" s="1"/>
     </row>
-    <row r="4" spans="1:10" ht="20.5" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:10" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A4" s="5">
         <v>43985</v>
       </c>
@@ -1868,7 +1867,7 @@
       </c>
       <c r="J4" s="1"/>
     </row>
-    <row r="5" spans="1:10" ht="32.5" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:10" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A5" s="5">
         <v>45139</v>
       </c>
@@ -1898,7 +1897,7 @@
       </c>
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:10" ht="20.5" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:10" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A6" s="8">
         <v>45790</v>
       </c>
